--- a/data/trans_orig/P2A_psíq_R-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P2A_psíq_R-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>18044</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10028</v>
+        <v>10822</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>29601</v>
+        <v>29854</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0308906139371673</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01716783911265811</v>
+        <v>0.01852550629947281</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0506749444526856</v>
+        <v>0.0511076710959012</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -765,19 +765,19 @@
         <v>17405</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>10469</v>
+        <v>10012</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>26950</v>
+        <v>27270</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01887116432047497</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01135016475647761</v>
+        <v>0.01085555877612881</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02921902751042466</v>
+        <v>0.02956590257563502</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>34</v>
@@ -786,19 +786,19 @@
         <v>35450</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>24688</v>
+        <v>23984</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>49825</v>
+        <v>47833</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02353175301534589</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0163879041969381</v>
+        <v>0.01592077430228369</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03307369490127478</v>
+        <v>0.03175156611352604</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>566097</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>554540</v>
+        <v>554287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>574113</v>
+        <v>573319</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9691093860628327</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9493250555473143</v>
+        <v>0.9488923289040986</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9828321608873416</v>
+        <v>0.9814744937005269</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>867</v>
@@ -836,19 +836,19 @@
         <v>904928</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>895383</v>
+        <v>895063</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>911864</v>
+        <v>912321</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.981128835679525</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9707809724895752</v>
+        <v>0.9704340974243654</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9886498352435222</v>
+        <v>0.9891444412238715</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1425</v>
@@ -857,19 +857,19 @@
         <v>1471024</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1456649</v>
+        <v>1458641</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1481786</v>
+        <v>1482490</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9764682469846541</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9669263050987253</v>
+        <v>0.968248433886474</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9836120958030619</v>
+        <v>0.9840792256977163</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>5908</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2060</v>
+        <v>2159</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>11957</v>
+        <v>13637</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.005481315741846378</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.001911292396535577</v>
+        <v>0.002002654202144141</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01109335685251258</v>
+        <v>0.01265133249768378</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>6</v>
@@ -982,19 +982,19 @@
         <v>6034</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>2781</v>
+        <v>2104</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12464</v>
+        <v>12205</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.005705649219533965</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.002630108213810644</v>
+        <v>0.001989871740677939</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.01178555165184468</v>
+        <v>0.01154115768783512</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>12</v>
@@ -1003,19 +1003,19 @@
         <v>11942</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>6374</v>
+        <v>6860</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>19322</v>
+        <v>20351</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.005592413250015264</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0029848857977795</v>
+        <v>0.003212415386651718</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.009048168697588873</v>
+        <v>0.009530328625599136</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>1071986</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1065937</v>
+        <v>1064257</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1075834</v>
+        <v>1075735</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9945186842581536</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9889066431474877</v>
+        <v>0.9873486675023158</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9980887076034645</v>
+        <v>0.9979973457978558</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1022</v>
@@ -1053,19 +1053,19 @@
         <v>1051504</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1045074</v>
+        <v>1045333</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1054757</v>
+        <v>1055434</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.994294350780466</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9882144483481552</v>
+        <v>0.9884588423121649</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9973698917861894</v>
+        <v>0.998010128259322</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2071</v>
@@ -1074,19 +1074,19 @@
         <v>2123490</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2116110</v>
+        <v>2115081</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2129058</v>
+        <v>2128572</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9944075867499848</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9909518313024112</v>
+        <v>0.9904696713744008</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9970151142022204</v>
+        <v>0.9967875846133483</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>4765</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>1831</v>
+        <v>1802</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11407</v>
+        <v>10406</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.004248757009106318</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.00163212672408652</v>
+        <v>0.001606359896084237</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01017036810281474</v>
+        <v>0.009277853942423243</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -1199,19 +1199,19 @@
         <v>12825</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7004</v>
+        <v>6605</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>22051</v>
+        <v>22298</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0129029816276945</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.007046902364748119</v>
+        <v>0.006645294911164552</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02218570449324182</v>
+        <v>0.02243400785023086</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>17</v>
@@ -1220,19 +1220,19 @@
         <v>17590</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10195</v>
+        <v>9835</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>26729</v>
+        <v>27286</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008314764496077221</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.004819036339960531</v>
+        <v>0.00464870998622045</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01263481900296976</v>
+        <v>0.01289809359086261</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>1116829</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1110187</v>
+        <v>1111188</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1119763</v>
+        <v>1119792</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9957512429908937</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9898296318971845</v>
+        <v>0.9907221460575774</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9983678732759135</v>
+        <v>0.9983936401039157</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>970</v>
@@ -1270,19 +1270,19 @@
         <v>981115</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>971889</v>
+        <v>971642</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>986936</v>
+        <v>987335</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9870970183723055</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9778142955067579</v>
+        <v>0.9775659921497691</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9929530976352519</v>
+        <v>0.9933547050888355</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2068</v>
@@ -1291,19 +1291,19 @@
         <v>2097944</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2088805</v>
+        <v>2088248</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2105339</v>
+        <v>2105699</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9916852355039227</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9873651809970301</v>
+        <v>0.9871019064091369</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9951809636600395</v>
+        <v>0.9953512900137792</v>
       </c>
     </row>
     <row r="12">
@@ -1398,7 +1398,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5100</v>
+        <v>5081</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.00228686203351409</v>
@@ -1407,7 +1407,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01140342994286641</v>
+        <v>0.01136270369781816</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>2</v>
@@ -1419,7 +1419,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7340</v>
+        <v>6583</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.006356459831049357</v>
@@ -1428,7 +1428,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0215158010402988</v>
+        <v>0.01929686025922299</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -1437,19 +1437,19 @@
         <v>3191</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1013</v>
+        <v>1014</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8502</v>
+        <v>9658</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.004047961440152289</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.001284990143154039</v>
+        <v>0.001286025652187015</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01078383381293132</v>
+        <v>0.0122510326381598</v>
       </c>
     </row>
     <row r="14">
@@ -1466,7 +1466,7 @@
         <v>446177</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>442100</v>
+        <v>442119</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>447200</v>
@@ -1475,7 +1475,7 @@
         <v>0.9977131379664859</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9885965700571336</v>
+        <v>0.9886372963021819</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -1487,7 +1487,7 @@
         <v>338989</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>333818</v>
+        <v>334575</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>341158</v>
@@ -1496,7 +1496,7 @@
         <v>0.9936435401689506</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9784841989597005</v>
+        <v>0.9807031397407769</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -1508,19 +1508,19 @@
         <v>785167</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>779856</v>
+        <v>778700</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>787345</v>
+        <v>787344</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9959520385598477</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9892161661870695</v>
+        <v>0.9877489673618401</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.998715009856846</v>
+        <v>0.9987139743478131</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>29741</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>19671</v>
+        <v>20553</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>42328</v>
+        <v>42074</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009205323637886125</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006088543467397503</v>
+        <v>0.006361570018782976</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01310130392851057</v>
+        <v>0.01302267694117768</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>38</v>
@@ -1633,19 +1633,19 @@
         <v>38433</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>27353</v>
+        <v>27282</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>52888</v>
+        <v>51786</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01159370905232666</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.008251459656360864</v>
+        <v>0.008230050577841357</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01595416165189555</v>
+        <v>0.01562183068721566</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>66</v>
@@ -1654,19 +1654,19 @@
         <v>68174</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>53144</v>
+        <v>52941</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>87338</v>
+        <v>88016</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01041486646833025</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008118748863254029</v>
+        <v>0.008087726311186219</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01334262931506293</v>
+        <v>0.01344622330856254</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>3201088</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3188501</v>
+        <v>3188755</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3211158</v>
+        <v>3210276</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9907946763621138</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9868986960714895</v>
+        <v>0.9869773230588222</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9939114565326025</v>
+        <v>0.9936384299812171</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3196</v>
@@ -1704,19 +1704,19 @@
         <v>3276536</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3262081</v>
+        <v>3263183</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3287616</v>
+        <v>3287687</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9884062909476733</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9840458383481046</v>
+        <v>0.9843781693127844</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9917485403436391</v>
+        <v>0.9917699494221588</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6336</v>
@@ -1725,19 +1725,19 @@
         <v>6477624</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6458460</v>
+        <v>6457782</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6492654</v>
+        <v>6492857</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9895851335316698</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9866573706849371</v>
+        <v>0.9865537766914375</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.991881251136746</v>
+        <v>0.9919122736888137</v>
       </c>
     </row>
     <row r="18">
@@ -2069,19 +2069,19 @@
         <v>11311</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5937</v>
+        <v>6001</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>20617</v>
+        <v>19639</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01083481204362962</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005686717631310022</v>
+        <v>0.005748349001703905</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01974925341467603</v>
+        <v>0.01881268565227806</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>25</v>
@@ -2090,19 +2090,19 @@
         <v>26251</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>18105</v>
+        <v>17656</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38735</v>
+        <v>38947</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02344027809582265</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01616613861992419</v>
+        <v>0.01576501328904609</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03458670683512469</v>
+        <v>0.03477610106373482</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>36</v>
@@ -2111,19 +2111,19 @@
         <v>37562</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>27020</v>
+        <v>27792</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>51178</v>
+        <v>53202</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0173588932231927</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01248697940642246</v>
+        <v>0.01284355112441936</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.0236514000249186</v>
+        <v>0.02458665477865124</v>
       </c>
     </row>
     <row r="5">
@@ -2140,19 +2140,19 @@
         <v>1032624</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1023318</v>
+        <v>1024296</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1037998</v>
+        <v>1037934</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9891651879563704</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.980250746585324</v>
+        <v>0.981187314347722</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.99431328236869</v>
+        <v>0.9942516509982962</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1006</v>
@@ -2161,19 +2161,19 @@
         <v>1093677</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1081193</v>
+        <v>1080981</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1101823</v>
+        <v>1102272</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9765597219041774</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9654132931648756</v>
+        <v>0.9652238989362654</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9838338613800759</v>
+        <v>0.984234986710954</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1973</v>
@@ -2182,19 +2182,19 @@
         <v>2126301</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2112685</v>
+        <v>2110661</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2136843</v>
+        <v>2136071</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9826411067768073</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9763485999750814</v>
+        <v>0.9754133452213488</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9875130205935776</v>
+        <v>0.9871564488755806</v>
       </c>
     </row>
     <row r="6">
@@ -2286,19 +2286,19 @@
         <v>20911</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>12824</v>
+        <v>12849</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34248</v>
+        <v>33218</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.02140182571126006</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01312475864321653</v>
+        <v>0.0131509831917511</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03505194397219058</v>
+        <v>0.03399795162453709</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>22</v>
@@ -2307,19 +2307,19 @@
         <v>23863</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>15553</v>
+        <v>15245</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>36003</v>
+        <v>36804</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02180727457438077</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.01421281856785657</v>
+        <v>0.01393204111274783</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03290139323588724</v>
+        <v>0.03363335567235033</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>41</v>
@@ -2328,19 +2328,19 @@
         <v>44774</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>32642</v>
+        <v>31351</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>60032</v>
+        <v>59395</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02161601962960309</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01575888026668291</v>
+        <v>0.01513547341329931</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.0289821641754671</v>
+        <v>0.02867487006388711</v>
       </c>
     </row>
     <row r="8">
@@ -2357,19 +2357,19 @@
         <v>956162</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>942825</v>
+        <v>943855</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>964249</v>
+        <v>964224</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.97859817428874</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.964948056027809</v>
+        <v>0.9660020483754629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9868752413567834</v>
+        <v>0.9868490168082488</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>998</v>
@@ -2378,19 +2378,19 @@
         <v>1070399</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1058259</v>
+        <v>1057458</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1078709</v>
+        <v>1079017</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9781927254256192</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9670986067641126</v>
+        <v>0.9663666443276496</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9857871814321434</v>
+        <v>0.9860679588872521</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1903</v>
@@ -2399,19 +2399,19 @@
         <v>2026561</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>2011303</v>
+        <v>2011940</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2038693</v>
+        <v>2039984</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9783839803703969</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9710178358245332</v>
+        <v>0.9713251299361129</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9842411197333172</v>
+        <v>0.9848645265867008</v>
       </c>
     </row>
     <row r="9">
@@ -2503,19 +2503,19 @@
         <v>17230</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>10248</v>
+        <v>9287</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28517</v>
+        <v>28000</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01946689950333948</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01157811631478551</v>
+        <v>0.01049257653102125</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03221817212509746</v>
+        <v>0.03163438369345802</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>11</v>
@@ -2524,19 +2524,19 @@
         <v>11317</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>6056</v>
+        <v>6142</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>19434</v>
+        <v>20502</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01292242927204871</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00691467580236628</v>
+        <v>0.007013402567560776</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0221901733783694</v>
+        <v>0.02340925152034677</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>26</v>
@@ -2545,19 +2545,19 @@
         <v>28548</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>18704</v>
+        <v>19452</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>41790</v>
+        <v>41075</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01621198214424207</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01062156623445868</v>
+        <v>0.01104637869121764</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02373186878201081</v>
+        <v>0.02332592642881868</v>
       </c>
     </row>
     <row r="11">
@@ -2574,19 +2574,19 @@
         <v>867885</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>856598</v>
+        <v>857115</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>874867</v>
+        <v>875828</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9805331004966605</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9677818278749025</v>
+        <v>0.9683656163065421</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9884218836852144</v>
+        <v>0.9895074234689788</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>810</v>
@@ -2595,19 +2595,19 @@
         <v>864479</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>856362</v>
+        <v>855294</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>869740</v>
+        <v>869654</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9870775707279513</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9778098266216306</v>
+        <v>0.9765907484796533</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9930853241976337</v>
+        <v>0.9929865974324393</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1625</v>
@@ -2616,19 +2616,19 @@
         <v>1732363</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1719121</v>
+        <v>1719836</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1742207</v>
+        <v>1741459</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.983788017855758</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9762681312179892</v>
+        <v>0.9766740735711815</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9893784337655416</v>
+        <v>0.9889536213087825</v>
       </c>
     </row>
     <row r="12">
@@ -2720,19 +2720,19 @@
         <v>12724</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>5911</v>
+        <v>5744</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>23926</v>
+        <v>23859</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.02529489620585658</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01175020650215126</v>
+        <v>0.01141837876675694</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04756434871032907</v>
+        <v>0.04743061733206697</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>10</v>
@@ -2741,19 +2741,19 @@
         <v>11790</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>5973</v>
+        <v>6099</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>21027</v>
+        <v>21114</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.02604250430353888</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01319375527530791</v>
+        <v>0.01347195741876089</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.04644413094714413</v>
+        <v>0.04663639330071331</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>19</v>
@@ -2762,19 +2762,19 @@
         <v>24514</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>15580</v>
+        <v>15126</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>36855</v>
+        <v>38557</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02564903261025886</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01630106524787649</v>
+        <v>0.01582633406514119</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03856071999437533</v>
+        <v>0.04034170885305818</v>
       </c>
     </row>
     <row r="14">
@@ -2791,19 +2791,19 @@
         <v>490299</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>479097</v>
+        <v>479164</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>497112</v>
+        <v>497279</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9747051037941434</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.952435651289671</v>
+        <v>0.9525693826679331</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9882497934978489</v>
+        <v>0.9885816212332431</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>402</v>
@@ -2812,19 +2812,19 @@
         <v>440946</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>431709</v>
+        <v>431622</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>446763</v>
+        <v>446637</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9739574956964612</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9535558690528555</v>
+        <v>0.9533636066992867</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9868062447246916</v>
+        <v>0.9865280425812391</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>854</v>
@@ -2833,19 +2833,19 @@
         <v>931244</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>918903</v>
+        <v>917201</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>940178</v>
+        <v>940632</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9743509673897411</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9614392800056247</v>
+        <v>0.9596582911469418</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9836989347521234</v>
+        <v>0.9841736659348588</v>
       </c>
     </row>
     <row r="15">
@@ -2937,19 +2937,19 @@
         <v>62176</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>47333</v>
+        <v>46676</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>83773</v>
+        <v>80728</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01823809948217371</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0138840758932297</v>
+        <v>0.0136913731985214</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02457294936577335</v>
+        <v>0.02367994731763136</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>68</v>
@@ -2958,19 +2958,19 @@
         <v>73222</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>56556</v>
+        <v>57572</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>93629</v>
+        <v>93349</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02066831293223778</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01596397371945969</v>
+        <v>0.01625065344068741</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02642848994969719</v>
+        <v>0.02634963764081565</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>122</v>
@@ -2979,19 +2979,19 @@
         <v>135398</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>110039</v>
+        <v>111579</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>159252</v>
+        <v>159706</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01947655385662863</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01582867778410152</v>
+        <v>0.01605017183811397</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02290781338089283</v>
+        <v>0.0229730638502436</v>
       </c>
     </row>
     <row r="17">
@@ -3008,19 +3008,19 @@
         <v>3346969</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3325372</v>
+        <v>3328417</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3361812</v>
+        <v>3362469</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9817619005178263</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9754270506342269</v>
+        <v>0.9763200526823689</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9861159241067703</v>
+        <v>0.9863086268014788</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3216</v>
@@ -3029,19 +3029,19 @@
         <v>3469500</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3449093</v>
+        <v>3449373</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3486166</v>
+        <v>3485150</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9793316870677622</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9735715100503025</v>
+        <v>0.9736503623591842</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9840360262805402</v>
+        <v>0.9837493465593126</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6355</v>
@@ -3050,19 +3050,19 @@
         <v>6816469</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6792615</v>
+        <v>6792161</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6841828</v>
+        <v>6840288</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9805234461433714</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9770921866191072</v>
+        <v>0.9770269361497566</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9841713222158985</v>
+        <v>0.9839498281618864</v>
       </c>
     </row>
     <row r="18">
@@ -3394,19 +3394,19 @@
         <v>15332</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8901</v>
+        <v>8538</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25779</v>
+        <v>24978</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.0135920084758068</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.007891108021980399</v>
+        <v>0.007568907047882097</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02285370882708411</v>
+        <v>0.02214407797564326</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>26</v>
@@ -3415,19 +3415,19 @@
         <v>29206</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>19873</v>
+        <v>19703</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>43196</v>
+        <v>42773</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02318769546321202</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01577760322480609</v>
+        <v>0.01564276834768896</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03429464159731273</v>
+        <v>0.03395896244892262</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>40</v>
@@ -3436,19 +3436,19 @@
         <v>44538</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>32996</v>
+        <v>32820</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61433</v>
+        <v>60736</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01865423142049923</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01381980541562322</v>
+        <v>0.01374627787108407</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02573063941843979</v>
+        <v>0.02543856663399888</v>
       </c>
     </row>
     <row r="5">
@@ -3465,19 +3465,19 @@
         <v>1112665</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1102218</v>
+        <v>1103019</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1119096</v>
+        <v>1119459</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9864079915241932</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9771462911729158</v>
+        <v>0.9778559220243566</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9921088919780193</v>
+        <v>0.9924310929521177</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>1162</v>
@@ -3486,19 +3486,19 @@
         <v>1230355</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1216365</v>
+        <v>1216788</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1239688</v>
+        <v>1239858</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.976812304536788</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9657053584026873</v>
+        <v>0.9660410375510774</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.984222396775194</v>
+        <v>0.9843572316523111</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>2214</v>
@@ -3507,19 +3507,19 @@
         <v>2343020</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2326125</v>
+        <v>2326822</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>2354562</v>
+        <v>2354738</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9813457685795007</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9742693605815601</v>
+        <v>0.9745614333660009</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9861801945843767</v>
+        <v>0.9862537221289159</v>
       </c>
     </row>
     <row r="6">
@@ -3611,19 +3611,19 @@
         <v>6727</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2825</v>
+        <v>2859</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13911</v>
+        <v>12950</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.007401866927288803</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.003108306741955774</v>
+        <v>0.003145836243092985</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.01530614809572491</v>
+        <v>0.01424924784635242</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -3632,19 +3632,19 @@
         <v>15411</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>8060</v>
+        <v>8424</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>24228</v>
+        <v>25479</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.01531164748102093</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.008007814273237893</v>
+        <v>0.008369914448954836</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.02407171626596942</v>
+        <v>0.025314723171462</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>21</v>
@@ -3653,19 +3653,19 @@
         <v>22138</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14043</v>
+        <v>13247</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>33314</v>
+        <v>32304</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.01155839510316468</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.007332091279743925</v>
+        <v>0.006916459627612188</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.01739376109982143</v>
+        <v>0.01686620599151032</v>
       </c>
     </row>
     <row r="8">
@@ -3682,19 +3682,19 @@
         <v>902098</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>894914</v>
+        <v>895875</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>906000</v>
+        <v>905966</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9925981330727112</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9846938519042751</v>
+        <v>0.9857507521536476</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9968916932580442</v>
+        <v>0.9968541637569072</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>937</v>
@@ -3703,19 +3703,19 @@
         <v>991064</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>982247</v>
+        <v>980996</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>998415</v>
+        <v>998051</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9846883525189791</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9759282837340304</v>
+        <v>0.9746852768285379</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.991992185726762</v>
+        <v>0.991630085551045</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>1811</v>
@@ -3724,19 +3724,19 @@
         <v>1893162</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1881986</v>
+        <v>1882996</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1901257</v>
+        <v>1902053</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9884416048968353</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9826062389001787</v>
+        <v>0.9831337940084897</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.992667908720256</v>
+        <v>0.9930835403723879</v>
       </c>
     </row>
     <row r="9">
@@ -3828,19 +3828,19 @@
         <v>7786</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>3095</v>
+        <v>3751</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>15939</v>
+        <v>16765</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.0094521569149566</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003757593845026928</v>
+        <v>0.004553130979953267</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01934873098724002</v>
+        <v>0.02035140032902217</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>6</v>
@@ -3849,19 +3849,19 @@
         <v>6652</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>2423</v>
+        <v>2901</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>14601</v>
+        <v>14808</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.008627158246368012</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.003142604205751615</v>
+        <v>0.003762384727673086</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01893680606063782</v>
+        <v>0.01920480282163089</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>13</v>
@@ -3870,19 +3870,19 @@
         <v>14438</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>7928</v>
+        <v>7813</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>25117</v>
+        <v>24390</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009053288578815891</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.00497083618643168</v>
+        <v>0.00489877425737859</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01574904518547226</v>
+        <v>0.0152932288342222</v>
       </c>
     </row>
     <row r="11">
@@ -3899,19 +3899,19 @@
         <v>815973</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>807820</v>
+        <v>806994</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>820664</v>
+        <v>820008</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9905478430850434</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.98065126901276</v>
+        <v>0.9796485996709787</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9962424061549733</v>
+        <v>0.9954468690200469</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>722</v>
@@ -3920,19 +3920,19 @@
         <v>764407</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>756458</v>
+        <v>756251</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>768636</v>
+        <v>768158</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9913728417536319</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9810631939393616</v>
+        <v>0.9807951971783692</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9968573957942484</v>
+        <v>0.9962376152723272</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1502</v>
@@ -3941,19 +3941,19 @@
         <v>1580380</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1569701</v>
+        <v>1570428</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1586890</v>
+        <v>1587005</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9909467114211841</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9842509548145278</v>
+        <v>0.9847067711657779</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9950291638135683</v>
+        <v>0.9951012257426214</v>
       </c>
     </row>
     <row r="12">
@@ -4048,7 +4048,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>6143</v>
+        <v>5222</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.002045076191259238</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.01212266793530012</v>
+        <v>0.01030493927365702</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>6</v>
@@ -4066,19 +4066,19 @@
         <v>6019</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>2066</v>
+        <v>2110</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>12959</v>
+        <v>11839</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01229193088995325</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.004219691256587485</v>
+        <v>0.004309657020236251</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0264632907380558</v>
+        <v>0.02417589486933478</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>7</v>
@@ -4087,19 +4087,19 @@
         <v>7056</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3018</v>
+        <v>3035</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>14101</v>
+        <v>14233</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.007081073230895614</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.003029365520680384</v>
+        <v>0.003046011026857035</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.01415167475877023</v>
+        <v>0.01428428744710901</v>
       </c>
     </row>
     <row r="14">
@@ -4116,7 +4116,7 @@
         <v>505665</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>500558</v>
+        <v>501479</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>506701</v>
@@ -4125,7 +4125,7 @@
         <v>0.9979549238087407</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9878773320646965</v>
+        <v>0.9896950607263429</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -4137,19 +4137,19 @@
         <v>483679</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>476739</v>
+        <v>477859</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>487632</v>
+        <v>487588</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9877080691100467</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9735367092619444</v>
+        <v>0.9758241051306652</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9957803087434125</v>
+        <v>0.9956903429797638</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>919</v>
@@ -4158,19 +4158,19 @@
         <v>989342</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>982297</v>
+        <v>982165</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>993380</v>
+        <v>993363</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9929189267691044</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9858483252412298</v>
+        <v>0.985715712552891</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9969706344793197</v>
+        <v>0.996953988973143</v>
       </c>
     </row>
     <row r="15">
@@ -4262,19 +4262,19 @@
         <v>30881</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>20857</v>
+        <v>20629</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>44336</v>
+        <v>43945</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009170984231318983</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006194077460155299</v>
+        <v>0.006126318901813635</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01316684612598645</v>
+        <v>0.01305064162970888</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>52</v>
@@ -4283,19 +4283,19 @@
         <v>57288</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>44119</v>
+        <v>44123</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>75366</v>
+        <v>76122</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01624379166245981</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01250958254929339</v>
+        <v>0.01251077428016942</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02136958798756733</v>
+        <v>0.02158395048549533</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>81</v>
@@ -4304,19 +4304,19 @@
         <v>88170</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>70249</v>
+        <v>71404</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>110746</v>
+        <v>111661</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01278921069461776</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01018970609289524</v>
+        <v>0.01035728714649597</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01606391424428473</v>
+        <v>0.01619671089027495</v>
       </c>
     </row>
     <row r="17">
@@ -4333,19 +4333,19 @@
         <v>3336401</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3322946</v>
+        <v>3323337</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3346425</v>
+        <v>3346653</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.990829015768681</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9868331538740136</v>
+        <v>0.9869493583702911</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9938059225398448</v>
+        <v>0.9938736810981864</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>3270</v>
@@ -4354,19 +4354,19 @@
         <v>3469504</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3451426</v>
+        <v>3450670</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3482673</v>
+        <v>3482669</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9837562083375402</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9786304120124327</v>
+        <v>0.9784160495145047</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9874904174507066</v>
+        <v>0.9874892257198306</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>6446</v>
@@ -4375,19 +4375,19 @@
         <v>6805905</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6783329</v>
+        <v>6782414</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>6823826</v>
+        <v>6822671</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9872107893053822</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9839360857557155</v>
+        <v>0.9838032891097253</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9898102939071048</v>
+        <v>0.9896427128535041</v>
       </c>
     </row>
     <row r="18">
@@ -4719,19 +4719,19 @@
         <v>22707</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>14363</v>
+        <v>14628</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>35651</v>
+        <v>37218</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04552961519285091</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02879873720638705</v>
+        <v>0.02933074131338773</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0714824972669743</v>
+        <v>0.07462361258153774</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>34</v>
@@ -4740,19 +4740,19 @@
         <v>22764</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16106</v>
+        <v>15602</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31433</v>
+        <v>31230</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.0365055269362085</v>
+        <v>0.03650552693620851</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02582785396453032</v>
+        <v>0.02502034218338331</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.0504066431703652</v>
+        <v>0.05008210406044826</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>56</v>
@@ -4761,19 +4761,19 @@
         <v>45472</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>34712</v>
+        <v>35171</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61604</v>
+        <v>60640</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04051567501322461</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.03092913390533623</v>
+        <v>0.03133790183535905</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05489017317924929</v>
+        <v>0.05403099775766769</v>
       </c>
     </row>
     <row r="5">
@@ -4790,19 +4790,19 @@
         <v>476032</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>463088</v>
+        <v>461521</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>484376</v>
+        <v>484111</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.9544703848071492</v>
+        <v>0.9544703848071491</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9285175027330256</v>
+        <v>0.9253763874184623</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.971201262793613</v>
+        <v>0.9706692586866124</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>827</v>
@@ -4811,19 +4811,19 @@
         <v>600816</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>592147</v>
+        <v>592350</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>607474</v>
+        <v>607978</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9634944730637913</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.9495933568296349</v>
+        <v>0.9499178959395518</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.9741721460354695</v>
+        <v>0.9749796578166169</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1260</v>
@@ -4832,19 +4832,19 @@
         <v>1076848</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>1060716</v>
+        <v>1061680</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>1087608</v>
+        <v>1087149</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.9594843249867753</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9451098268207506</v>
+        <v>0.9459690022423325</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9690708660946636</v>
+        <v>0.9686620981646411</v>
       </c>
     </row>
     <row r="6">
@@ -4936,19 +4936,19 @@
         <v>22910</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>14655</v>
+        <v>15095</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34702</v>
+        <v>35277</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.02386130229725443</v>
+        <v>0.02386130229725442</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01526364934741877</v>
+        <v>0.01572195986397638</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.03614257354408446</v>
+        <v>0.03674127393479254</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>55</v>
@@ -4957,19 +4957,19 @@
         <v>38869</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28660</v>
+        <v>29299</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>51832</v>
+        <v>52502</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03483315108345187</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02568460180370669</v>
+        <v>0.0262569732657527</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04645065635020095</v>
+        <v>0.04705147315476947</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>79</v>
@@ -4978,19 +4978,19 @@
         <v>61779</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>47554</v>
+        <v>48546</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>78252</v>
+        <v>78282</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.02975870718225385</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02290654986517129</v>
+        <v>0.02338451638270362</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.03769387413330699</v>
+        <v>0.03770855187751348</v>
       </c>
     </row>
     <row r="8">
@@ -5007,19 +5007,19 @@
         <v>937227</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>925435</v>
+        <v>924860</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>945482</v>
+        <v>945042</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9761386977027456</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9638574264559154</v>
+        <v>0.9632587260652072</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9847363506525812</v>
+        <v>0.9842780401360237</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>1552</v>
@@ -5028,19 +5028,19 @@
         <v>1076980</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1064017</v>
+        <v>1063347</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1087189</v>
+        <v>1086550</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.9651668489165479</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9535493436497987</v>
+        <v>0.9529485268452302</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9743153981962932</v>
+        <v>0.9737430267342474</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>2438</v>
@@ -5049,19 +5049,19 @@
         <v>2014207</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>1997734</v>
+        <v>1997704</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>2028432</v>
+        <v>2027440</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.9702412928177462</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9623061258666928</v>
+        <v>0.9622914481224863</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9770934501348287</v>
+        <v>0.9766154836172962</v>
       </c>
     </row>
     <row r="9">
@@ -5153,19 +5153,19 @@
         <v>19212</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11564</v>
+        <v>11460</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>31616</v>
+        <v>30684</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01835913312277123</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01104998486010633</v>
+        <v>0.01095130482063609</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03021138300040471</v>
+        <v>0.02932118152550435</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>32</v>
@@ -5174,19 +5174,19 @@
         <v>24560</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>15993</v>
+        <v>16839</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>34976</v>
+        <v>35629</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0234430790397073</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01526565819222652</v>
+        <v>0.01607369824364379</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03338514700239042</v>
+        <v>0.03400896828458245</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>50</v>
@@ -5195,19 +5195,19 @@
         <v>43772</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>31978</v>
+        <v>32528</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>58807</v>
+        <v>60041</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.02090251702209712</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.01527018500494341</v>
+        <v>0.01553304071599487</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02808176349720875</v>
+        <v>0.02867100445256448</v>
       </c>
     </row>
     <row r="11">
@@ -5224,19 +5224,19 @@
         <v>1027267</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1014863</v>
+        <v>1015795</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1034915</v>
+        <v>1035019</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9816408668772287</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9697886169995952</v>
+        <v>0.9706788184744957</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9889500151398936</v>
+        <v>0.9890486951793639</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>1484</v>
@@ -5245,19 +5245,19 @@
         <v>1023082</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1012666</v>
+        <v>1012013</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1031649</v>
+        <v>1030803</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9765569209602927</v>
+        <v>0.9765569209602928</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9666148529976096</v>
+        <v>0.9659910317154174</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9847343418077735</v>
+        <v>0.9839263017563562</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>2495</v>
@@ -5266,19 +5266,19 @@
         <v>2050349</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>2035314</v>
+        <v>2034080</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>2062143</v>
+        <v>2061593</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9790974829779027</v>
+        <v>0.979097482977903</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9719182365027914</v>
+        <v>0.9713289955474357</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9847298149950566</v>
+        <v>0.9844669592840052</v>
       </c>
     </row>
     <row r="12">
@@ -5370,19 +5370,19 @@
         <v>15363</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>9055</v>
+        <v>9447</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>25044</v>
+        <v>24424</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0157416408048781</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.009278114826432048</v>
+        <v>0.009679917110914727</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.02566210233935966</v>
+        <v>0.02502627920962415</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>34</v>
@@ -5391,19 +5391,19 @@
         <v>24132</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>17273</v>
+        <v>16721</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>34502</v>
+        <v>34951</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.02650908963018181</v>
+        <v>0.02650908963018182</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01897466530026882</v>
+        <v>0.01836733899126379</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.03790030830549691</v>
+        <v>0.03839348059983123</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>51</v>
@@ -5412,19 +5412,19 @@
         <v>39495</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>29219</v>
+        <v>29004</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>51122</v>
+        <v>52085</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.02093817754653828</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01549052667869033</v>
+        <v>0.01537639246518761</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.02710230158264627</v>
+        <v>0.02761268514524672</v>
       </c>
     </row>
     <row r="14">
@@ -5441,19 +5441,19 @@
         <v>960566</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>950885</v>
+        <v>951505</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>966874</v>
+        <v>966482</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.9842583591951218</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9743378976606404</v>
+        <v>0.9749737207903759</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9907218851735679</v>
+        <v>0.9903200828890852</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1290</v>
@@ -5462,19 +5462,19 @@
         <v>886213</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>875843</v>
+        <v>875394</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>893072</v>
+        <v>893624</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9734909103698183</v>
+        <v>0.9734909103698184</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9620996916945032</v>
+        <v>0.9616065194001688</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9810253346997312</v>
+        <v>0.9816326610087363</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>2220</v>
@@ -5483,19 +5483,19 @@
         <v>1846779</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1835152</v>
+        <v>1834189</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1857055</v>
+        <v>1857270</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9790618224534618</v>
+        <v>0.9790618224534616</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9728976984173537</v>
+        <v>0.9723873148547528</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.98450947332131</v>
+        <v>0.9846236075348122</v>
       </c>
     </row>
     <row r="15">
@@ -5587,19 +5587,19 @@
         <v>80193</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>61884</v>
+        <v>64253</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>101417</v>
+        <v>101479</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02303537733620767</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01777615285925864</v>
+        <v>0.01845663972075974</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02913209037164831</v>
+        <v>0.02915000367879102</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>155</v>
@@ -5608,19 +5608,19 @@
         <v>110325</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>92138</v>
+        <v>92716</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>130148</v>
+        <v>130680</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.02983841450327198</v>
+        <v>0.02983841450327199</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.02491968588000599</v>
+        <v>0.02507599511608667</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03519965320135715</v>
+        <v>0.03534353079988502</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>236</v>
@@ -5629,19 +5629,19 @@
         <v>190518</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>165551</v>
+        <v>163716</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>218182</v>
+        <v>216786</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02653930666727618</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.02306145262348986</v>
+        <v>0.02280573697706686</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03039296396569854</v>
+        <v>0.03019845703391423</v>
       </c>
     </row>
     <row r="17">
@@ -5658,19 +5658,19 @@
         <v>3401091</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>3379867</v>
+        <v>3379805</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>3419400</v>
+        <v>3417031</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9769646226637924</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9708679096283519</v>
+        <v>0.9708499963212091</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9822238471407414</v>
+        <v>0.9815433602792404</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>5153</v>
@@ -5679,19 +5679,19 @@
         <v>3587091</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>3567268</v>
+        <v>3566736</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>3605278</v>
+        <v>3604700</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.9701615854967279</v>
+        <v>0.970161585496728</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9648003467986429</v>
+        <v>0.9646564692001149</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9750803141199941</v>
+        <v>0.9749240048839134</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>8413</v>
@@ -5700,19 +5700,19 @@
         <v>6988183</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>6960519</v>
+        <v>6961915</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>7013150</v>
+        <v>7014985</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9734606933327239</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9696070360343017</v>
+        <v>0.9698015429660856</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9769385473765105</v>
+        <v>0.9771942630229329</v>
       </c>
     </row>
     <row r="18">
